--- a/classfiers/bottleneck/decisionTree/smote/bottleneck-decisionTree-smote-results.xlsx
+++ b/classfiers/bottleneck/decisionTree/smote/bottleneck-decisionTree-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6534954407294833</v>
+        <v>0.7034482758620689</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7904411764705882</v>
+        <v>0.825910931174089</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7336448598130841</v>
+        <v>0.7881773399014779</v>
       </c>
     </row>
     <row r="3">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9306990881458967</v>
+        <v>0.9406896551724138</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9580882352941178</v>
+        <v>0.9651821862348179</v>
       </c>
       <c r="E7" t="n">
-        <v>0.946728971962617</v>
+        <v>0.9576354679802955</v>
       </c>
     </row>
   </sheetData>
